--- a/rasklad.xlsx
+++ b/rasklad.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="23260" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="22080" yWindow="0" windowWidth="25600" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -482,14 +482,22 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:11">
+      <c r="A1">
+        <f t="shared" ref="A1:C1" si="0">SUM(A3:A26)</f>
+        <v>16</v>
+      </c>
+      <c r="B1">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
       <c r="C1">
-        <f t="shared" ref="C1" si="0">SUM(C3:C26)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="D1" t="s">
@@ -596,11 +604,10 @@
     <row r="4" spans="1:11">
       <c r="A4">
         <f t="shared" ref="A4:A11" si="2">C4-B4</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B11" si="3">E4</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -630,11 +637,10 @@
     <row r="5" spans="1:11">
       <c r="A5">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -667,7 +673,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="B6:B11" si="3">E6</f>
         <v>10</v>
       </c>
       <c r="C6">
@@ -738,11 +744,10 @@
     <row r="8" spans="1:11">
       <c r="A8">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>12</v>
@@ -811,11 +816,11 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <f t="shared" si="2"/>
+        <f>C10-B10</f>
         <v>3</v>
       </c>
       <c r="B10">
-        <f t="shared" si="3"/>
+        <f>E10</f>
         <v>12</v>
       </c>
       <c r="C10">
@@ -849,11 +854,10 @@
     <row r="11" spans="1:11">
       <c r="A11">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>-5</v>
       </c>
       <c r="B11">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>8</v>

--- a/rasklad.xlsx
+++ b/rasklad.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="22080" yWindow="0" windowWidth="25600" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="21580" yWindow="1620" windowWidth="25600" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -673,7 +673,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <f t="shared" ref="B6:B11" si="3">E6</f>
+        <f t="shared" ref="B6:B9" si="3">E6</f>
         <v>10</v>
       </c>
       <c r="C6">
@@ -889,7 +889,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
